--- a/module/Import/test/ImportTest/Importer/Nyc/Parser/Excel/_files/teacher_good_sheet_with_warnings.xlsx
+++ b/module/Import/test/ImportTest/Importer/Nyc/Parser/Excel/_files/teacher_good_sheet_with_warnings.xlsx
@@ -9,10 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3440" yWindow="1460" windowWidth="27240" windowHeight="18320"/>
+    <workbookView xWindow="3440" yWindow="1460" windowWidth="27240" windowHeight="18320" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Teachers" sheetId="1" r:id="rId1"/>
+    <sheet name="Errors" sheetId="2" r:id="rId2"/>
+    <sheet name="Warnings" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
@@ -24,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="47">
   <si>
     <t>DDBNNN</t>
   </si>
@@ -239,6 +241,12 @@
       </rPr>
       <t>kind@gmail.com</t>
     </r>
+  </si>
+  <si>
+    <t>'Sheet "Teachers" Row: 5 No data found between cells "A" and "H" Skipping this row',</t>
+  </si>
+  <si>
+    <t>'Sheet "Teachers" Row: 7 No data found between cells "A" and "H" Skipping this row',</t>
   </si>
 </sst>
 </file>
@@ -629,7 +637,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:JD12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="194" workbookViewId="0">
+    <sheetView zoomScale="194" workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
@@ -3902,4 +3910,41 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId11"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/module/Import/test/ImportTest/Importer/Nyc/Parser/Excel/_files/teacher_good_sheet_with_warnings.xlsx
+++ b/module/Import/test/ImportTest/Importer/Nyc/Parser/Excel/_files/teacher_good_sheet_with_warnings.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/manchuck/PhpstormProjects/Cmwn/module/Import/test/ImportTest/Importer/Nyc/Parser/Excel/_files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chaitu/Documents/cmwn-platform/module/Import/test/ImportTest/Importer/Nyc/Parser/Excel/_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3440" yWindow="1460" windowWidth="27240" windowHeight="18320" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14240"/>
   </bookViews>
   <sheets>
     <sheet name="Teachers" sheetId="1" r:id="rId1"/>
@@ -81,9 +81,6 @@
     <t>01X100</t>
   </si>
   <si>
-    <t>Assistant Principal</t>
-  </si>
-  <si>
     <t>Carol</t>
   </si>
   <si>
@@ -247,6 +244,9 @@
   </si>
   <si>
     <t>'Sheet "Teachers" Row: 7 No data found between cells "A" and "H" Skipping this row',</t>
+  </si>
+  <si>
+    <t>Asst Principal</t>
   </si>
 </sst>
 </file>
@@ -637,8 +637,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:JD12"/>
   <sheetViews>
-    <sheetView zoomScale="194" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" zoomScale="194" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1201,17 +1201,17 @@
         <v>14</v>
       </c>
       <c r="B3" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" s="8" t="s">
         <v>15</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>16</v>
       </c>
       <c r="D3" s="9"/>
       <c r="E3" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="7" t="s">
         <v>17</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>18</v>
       </c>
       <c r="G3" s="8" t="s">
         <v>6</v>
@@ -1471,20 +1471,20 @@
         <v>14</v>
       </c>
       <c r="B4" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="8" t="s">
         <v>19</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>20</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="G4" s="7" t="s">
         <v>22</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>23</v>
       </c>
       <c r="H4" s="7" t="s">
         <v>13</v>
@@ -2001,17 +2001,17 @@
         <v>14</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D6" s="13"/>
       <c r="E6" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>25</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>26</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>6</v>
@@ -2273,17 +2273,17 @@
         <v>14</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K7" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L7" s="13"/>
       <c r="M7" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="N7" s="7" t="s">
         <v>28</v>
-      </c>
-      <c r="N7" s="7" t="s">
-        <v>29</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>6</v>
@@ -2545,17 +2545,17 @@
         <v>14</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D8" s="13"/>
       <c r="E8" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>31</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>32</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>6</v>
@@ -2817,20 +2817,20 @@
         <v>14</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D9" s="13"/>
       <c r="E9" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="F9" s="7" t="s">
-        <v>35</v>
-      </c>
       <c r="G9" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H9" s="7" t="s">
         <v>13</v>
@@ -3089,20 +3089,20 @@
         <v>14</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D10" s="13"/>
       <c r="E10" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="F10" s="7" t="s">
-        <v>38</v>
-      </c>
       <c r="G10" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H10" s="7"/>
       <c r="I10" s="13"/>
@@ -3359,20 +3359,20 @@
         <v>14</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D11" s="13"/>
       <c r="E11" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="F11" s="7" t="s">
-        <v>41</v>
-      </c>
       <c r="G11" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H11" s="7"/>
       <c r="I11" s="13"/>
@@ -3629,17 +3629,17 @@
         <v>14</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D12" s="13"/>
       <c r="E12" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>43</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>44</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>6</v>
@@ -3928,7 +3928,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
@@ -3936,12 +3936,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
